--- a/ruleLib/ruleLib0828.xlsx
+++ b/ruleLib/ruleLib0828.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="353">
   <si>
     <t>分类</t>
   </si>
@@ -1445,12 +1445,51 @@
     <t>板块</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>周末也会运行anly，分析有无问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule79</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大级别10日线平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方银星、天山纺织</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0天</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule78</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大级别5日线平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,6 +1716,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1710,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1888,6 +1934,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2692,7 +2742,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2847,6 +2897,9 @@
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="2:15" ht="13.5">
+      <c r="B14" s="49" t="s">
+        <v>346</v>
+      </c>
       <c r="F14" s="75" t="s">
         <v>342</v>
       </c>
@@ -2894,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3842,252 +3895,305 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="10"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="5"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" s="79">
+        <v>1</v>
+      </c>
+      <c r="F53" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" s="80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54" s="79">
+        <v>1</v>
+      </c>
+      <c r="F54" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="G54" s="80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C55" s="34">
         <v>36</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E55" s="10">
         <v>1</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G55" s="13" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="34"/>
-      <c r="E54" s="10">
-        <v>1</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="10"/>
-      <c r="F55" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="10"/>
-      <c r="D56" s="29" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="34"/>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10"/>
+      <c r="F57" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="10"/>
+      <c r="D58" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30" t="s">
+      <c r="E58" s="29"/>
+      <c r="F58" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G58" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H56" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="D57" s="29" t="s">
+      <c r="H58" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="32" customFormat="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30" t="s">
+      <c r="E59" s="29"/>
+      <c r="F59" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G59" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H57" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="32" customFormat="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="33" t="s">
+      <c r="H59" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="32" customFormat="1">
+      <c r="A60" s="31"/>
+      <c r="B60" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="34">
+      <c r="C60" s="34">
         <v>32</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E60" s="3">
         <v>1</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F60" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="32" customFormat="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="33" t="s">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="31"/>
+      <c r="B61" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C61" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E61" s="3">
         <v>1</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F61" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="D60" s="3" t="s">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="D62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="10" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F64" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="10"/>
-      <c r="D64" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="E66" s="34">
-        <v>1</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>281</v>
-      </c>
+      <c r="A66" s="10"/>
+      <c r="D66" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" s="34">
+        <v>1</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F69" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="10" t="s">
+    <row r="70" spans="1:8" s="32" customFormat="1">
+      <c r="A70" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="32" customFormat="1">
-      <c r="A69" s="5"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="3" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="31"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="32" t="s">
+      <c r="E71" s="3"/>
+      <c r="F71" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H69" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="D71" s="10" t="s">
+      <c r="G71" s="32"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="D73" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="10" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="10" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="9" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B77" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C77" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D77" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="17" t="s">
+      <c r="E77" s="16"/>
+      <c r="F77" s="17" t="s">
         <v>242</v>
       </c>
     </row>
